--- a/src/test/resources/Books.xlsx
+++ b/src/test/resources/Books.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\apachePOI\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D6425-926B-4757-B88E-ED1CB41203D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ha Minh Nam</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,26 +243,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,23 +278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -570,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
